--- a/filter - Copy.xlsx
+++ b/filter - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lonerganresearch-my.sharepoint.com/personal/calvin_lonerganresearch_com_au/Documents/Repos/tableau-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC10480C195B4C005ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8FFD42-88A0-4996-9B0D-5BC7EA238880}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC10480C195B4C005ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B94B3D-FE2A-4A73-B5B3-A5ECBF050B3C}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="270" windowWidth="21060" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,10 +572,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,10 +1163,13 @@
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
